--- a/src/main/java/com/finki/timesheets-client/src/assets/timesheet-upload-template.xlsx
+++ b/src/main/java/com/finki/timesheets-client/src/assets/timesheet-upload-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diplomska\finkitimesheets\src\main\java\com\finki\timesheets-client\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB53FC78-160C-4255-9E02-411CBB1E8CF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F37821-72BB-4E9B-AB6E-23FDA9E307A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E76676D-AAC0-4801-9FC3-E7A44B4DAEC6}"/>
   </bookViews>
@@ -42,15 +42,6 @@
     <t>1.4 Equipment for administrative and teaching issues.</t>
   </si>
   <si>
-    <t>03.08.2020</t>
-  </si>
-  <si>
-    <t>03.08.2021</t>
-  </si>
-  <si>
-    <t>03.08.2022</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>output</t>
+  </si>
+  <si>
+    <t>21.08.2020</t>
+  </si>
+  <si>
+    <t>22.08.2020</t>
+  </si>
+  <si>
+    <t>23.08.2020</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F13CAFB-B853-47FA-8506-4686A12C05F3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -439,21 +441,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>8</v>
@@ -467,7 +469,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -481,7 +483,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>8</v>
